--- a/Artigos.xlsx
+++ b/Artigos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +463,1065 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Evaluation of clinical impact of Interleukin 8 gene expression in patients with fibromyalgia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dias da Silva Amorim C.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1186/s42358-025-00453-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Toward an information systems architecture model for university hospitals: A case study in a Brazilian public hospital</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Júnior S.H.d.L.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-05-01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/isd2.12248</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Peroral endoscopic myotomy for the treatment of achalasia in the Unified Healthcare System (SUS): results of a short-term</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>de França I.R.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1590/0100-6991e-20223244-en</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ophthalmological findings in patients suspected with COVID-19 at a tertiary hospital in Pernambuco, Brazil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Silveira A.K.T.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5935/0004-2749.20220083</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Resistance exercises improve physical function in chronic chikungunya fever patients: A randomized controlled trial</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Neumann I.L.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2021-08-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.23736/S1973-9087.21.06520-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Comparação de técnicas cirúrgicas de correção de orelhas proeminentes: Mustardé versus Converse proeminentes</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LIMA, MARCEL FERNANDO MIRANDA BATISTA
+;                                                                MARICEVICH, PABLO
+;                                                                KAWAMURA, KELSON
+;                                                                LOPES, PRISCILA DA SILVA
+;                                                                FREIRE, AMANDA LUCAS
+;                                                                ANLICOARA, RAFAEL
+.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S1983-51752020000200154&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Reconstrução de mandíbula com retalho livre de fíbula: série de casos fíbula</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LIMA, MARCEL FERNANDO MIRANDA BATISTA
+;                                                                MARICEVICH, JUAN PABLO BORGES RODRIGUES
+;                                                                SÁ, JAIRO ZACCHÊ DE
+;                                                                KAWAMURA, KELSON
+;                                                                ANLICOARA, RAFAEL
+.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S1983-51752020000100023&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Avaliação da sensibilidade do complexo areolopapilar após mamoplastia redutora com liberação dérmica versus volume ressecado de tecido mamário</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE-SÁ, JAIRO ZACCHÊ
+KAWAMURA, KELSON
+BARRETO, RAFAEL HENRIQUE COUTINHO
+RAMOS, ANDERSON DA SILVA
+CAMPOS, AMANDA TORRES
+BRAGA, ANTÔNIO CARLOS CORTE REAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S1983-51752018000400478&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Reconstrução de parede abdominal: série de casos abdominal</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>KAWAMURA, KELSON
+LUNA, IGOR CHAVES GOMES
+ANLICOARA, RAFAEL
+LOPES, PRISCILA DA SILVA
+LIMA, MARCEL FERNANDO MIRANDA BATISTA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S1983-51752018000100056&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Neo-onfaloplastia com enxerto cutâneo Neoonfaloplastia Neo onfaloplastia</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PITA, PEDRO CELSO DE CASTRO
+ANLICOARA, RAFAEL
+MARICEVICH, JUAN PABLO
+KAWAMURA, KELSON
+LOPES, PRISCILA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S1983-51752017000200237&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Título indisponível</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Autor(es) indisponíveis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Data desconhecida</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Link indisponível</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Collagen content and C-X-C motif chemokine ligand 12 expression in neoplastic breast stroma</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ferreira, Cindy Juliane da Silva
+;                                                                Caires, Inacelli Queiroz de Souza
+;                                                                Costa Neto, Walfrido José Bezerra da
+;                                                                Almeida, Sinara Mônica Vitalino de
+.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0104-42302023000900600&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Access to childbirth care services in the interior of Pernambuco, Northeast region of Brazil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Leite, Régia Maria Batista
+;                                                                Araújo, Thália Velho Barreto de
+;                                                                Silva, Maria Rejane Ferreira da
+;                                                                Mendes, Antônio da Cruz Gouveia
+;                                                                Albuquerque, Maria do Socorro Veloso de
+.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>http://www.scielosp.org/scielo.php?script=sci_arttext&amp;pid=S0034-89102023000100203&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Papel de Hospital Universitário na rede de atenção reumatológica</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lorena, Suélem Barros de
+;                                                                Lorena Sobrinho, José Eudes de
+;                                                                Ranzolin, Aline
+;                                                                Duarte, Ângela Luzia Branco Pinto
+;                                                                Martelli, Petrônio José de Lima
+;                                                                Carvalho, Eduardo Maia Freese de</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http://www.scielosp.org/scielo.php?script=sci_arttext&amp;pid=S0103-11042019000701031&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Via de parto em gestações sucessivas em adolescentes: estudo de 714 casos</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Maia, Vamberto Oliveira de Azevedo
+Maia, Alessandra Costa de Azevedo
+Queiroga, Fábio Lima
+Maia Filho, Vamberto Oliveira de Azevedo
+Araújo, Aline Brandão de
+Lippo, Luís André Marinho
+Albuquerque, Rivaldo Mendes de</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0100-72032004000900005&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dermatoses pediátricas no Hospital das Clínicas da Universidade Federal de Pernambuco</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Santos, Josemir Belo dos
+Cordeiro, Leilane Oliveira
+Cordeiro, Lillian Oliveira
+Guimarães, Patrícia de Barros
+Corrêa, Paula Maria Rodrigues de B.
+Carvalho, Silvia da Costa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0365-05962004000300004&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Preoperative hypovitaminosis D and complications in plastic surgery: a pilot study</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>da Motta F.J.T.R.A.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1590/0100-6991e-20243719-en</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ophthalmological findings in patients suspected with COVID-19 at a tertiary hospital in Pernambuco, Brazil</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Silveira A.K.T.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5935/0004-2749.20220083</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Effects of rhythmic auditory stimulation on functionality in Parkinson's disease</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Autor(es) indisponíveis</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Link indisponível</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Psychomotor development of preterm infants aged 6 to 12 months</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Eickmann S.H.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2012-12-11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1590/S1516-31802012000500006</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>25-hydroxyivitamin D&lt;inf&gt;3&lt;/inf&gt; levels in patients with systemic lupus erythematosus and its association with clinical parameters and laboratory tests</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fragoso T.S.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2012-01-01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Link indisponível</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Collagen content and C-X-C motif chemokine ligand 12 expression in neoplastic breast stroma</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ferreira, Cindy Juliane da Silva
+;                                                                Caires, Inacelli Queiroz de Souza
+;                                                                Costa Neto, Walfrido José Bezerra da
+;                                                                Almeida, Sinara Mônica Vitalino de
+.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0104-42302023000900600&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Papel de Hospital Universitário na rede de atenção reumatológica</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lorena, Suélem Barros de
+;                                                                Lorena Sobrinho, José Eudes de
+;                                                                Ranzolin, Aline
+;                                                                Duarte, Ângela Luzia Branco Pinto
+;                                                                Martelli, Petrônio José de Lima
+;                                                                Carvalho, Eduardo Maia Freese de</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>http://www.scielosp.org/scielo.php?script=sci_arttext&amp;pid=S0103-11042019000701031&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Via de parto em gestações sucessivas em adolescentes: estudo de 714 casos</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Maia, Vamberto Oliveira de Azevedo
+Maia, Alessandra Costa de Azevedo
+Queiroga, Fábio Lima
+Maia Filho, Vamberto Oliveira de Azevedo
+Araújo, Aline Brandão de
+Lippo, Luís André Marinho
+Albuquerque, Rivaldo Mendes de</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0100-72032004000900005&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dermatoses pediátricas no Hospital das Clínicas da Universidade Federal de Pernambuco</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Santos, Josemir Belo dos
+Cordeiro, Leilane Oliveira
+Cordeiro, Lillian Oliveira
+Guimarães, Patrícia de Barros
+Corrêa, Paula Maria Rodrigues de B.
+Carvalho, Silvia da Costa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0365-05962004000300004&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Pathogenicity characteristics of stocked and fresh yeasts strains</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chaves, Guilherme Maranhão
+Cavalcanti, Maria Auxiliadora de Queiroz
+Porto, Ana Lúcia Figueiredo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S1517-83822003000300003&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Treatment of mycobacteriosis in a patient with compatible symptoms after a cesarean delivery</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Maia C.S.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1590/S1678-9946202163037</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lymphoscintigraphic abnormalities in the contralateral lower limbs of patients with unilateral lymphedema</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>de Almeida C.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2017-05-01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jvsv.2016.11.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Use of alcohol before and after bariatric surgery</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>de Amorim A.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1590/0100-69912015001002</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Conjunctival microbiota and antibiotics resistance in preterm newborns hospitalized in neonatal intensive care unit</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Endriss D.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Resumo indisponível</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2009-01-01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1590/S0004-27492009000300003</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Meaning attributed to the experience of mothers accompanying hospitalized premature and low birthweight newborns</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>De Vasconcelos M.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Resumo indisponível</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>2006-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://doi.org/10.1590/S1519-38292006000100006</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Collagen content and C-X-C motif chemokine ligand 12 expression in neoplastic breast stroma</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ferreira, Cindy Juliane da Silva
+;                                                                Caires, Inacelli Queiroz de Souza
+;                                                                Costa Neto, Walfrido José Bezerra da
+;                                                                Almeida, Sinara Mônica Vitalino de
+.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0104-42302023000900600&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Papel de Hospital Universitário na rede de atenção reumatológica</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lorena, Suélem Barros de
+;                                                                Lorena Sobrinho, José Eudes de
+;                                                                Ranzolin, Aline
+;                                                                Duarte, Ângela Luzia Branco Pinto
+;                                                                Martelli, Petrônio José de Lima
+;                                                                Carvalho, Eduardo Maia Freese de</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>http://www.scielosp.org/scielo.php?script=sci_arttext&amp;pid=S0103-11042019000701031&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Via de parto em gestações sucessivas em adolescentes: estudo de 714 casos</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Maia, Vamberto Oliveira de Azevedo
+Maia, Alessandra Costa de Azevedo
+Queiroga, Fábio Lima
+Maia Filho, Vamberto Oliveira de Azevedo
+Araújo, Aline Brandão de
+Lippo, Luís André Marinho
+Albuquerque, Rivaldo Mendes de</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0100-72032004000900005&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dermatoses pediátricas no Hospital das Clínicas da Universidade Federal de Pernambuco</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Santos, Josemir Belo dos
+Cordeiro, Leilane Oliveira
+Cordeiro, Lillian Oliveira
+Guimarães, Patrícia de Barros
+Corrêa, Paula Maria Rodrigues de B.
+Carvalho, Silvia da Costa</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0365-05962004000300004&amp;lang=pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Pathogenicity characteristics of stocked and fresh yeasts strains</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Chaves, Guilherme Maranhão
+Cavalcanti, Maria Auxiliadora de Queiroz
+Porto, Ana Lúcia Figueiredo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Resumo não encontrado</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Data não encontrada</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>http://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S1517-83822003000300003&amp;lang=pt</t>
         </is>
       </c>
     </row>
